--- a/jpcore-r4/main/CodeSystem-jp-microbiology-anti-microbial-drug-cs.xlsx
+++ b/jpcore-r4/main/CodeSystem-jp-microbiology-anti-microbial-drug-cs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/CodeSystem-jp-microbiology-anti-microbial-drug-cs.xlsx
+++ b/jpcore-r4/main/CodeSystem-jp-microbiology-anti-microbial-drug-cs.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/CodeSystem-jp-microbiology-anti-microbial-drug-cs.xlsx
+++ b/jpcore-r4/main/CodeSystem-jp-microbiology-anti-microbial-drug-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.392.100495.10.3.100.5.11.5.2</t>
+    <t>id: &lt;a href="http://terminology.hl7.org/5.3.0/NamingSystem-uri.html"&gt;Uniform Resource Identifier (URI)&lt;/a&gt;#urn:oid:1.2.392.100495.10.3.100.5.11.5.2</t>
   </si>
   <si>
     <t>Version</t>

--- a/jpcore-r4/main/CodeSystem-jp-microbiology-anti-microbial-drug-cs.xlsx
+++ b/jpcore-r4/main/CodeSystem-jp-microbiology-anti-microbial-drug-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: &lt;a href="http://terminology.hl7.org/5.3.0/NamingSystem-uri.html"&gt;Uniform Resource Identifier (URI)&lt;/a&gt;#urn:oid:1.2.392.100495.10.3.100.5.11.5.2</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:1.2.392.100495.10.3.100.5.11.5.2</t>
   </si>
   <si>
     <t>Version</t>

--- a/jpcore-r4/main/CodeSystem-jp-microbiology-anti-microbial-drug-cs.xlsx
+++ b/jpcore-r4/main/CodeSystem-jp-microbiology-anti-microbial-drug-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: Uniform Resource Identifier (URI)#urn:oid:1.2.392.100495.10.3.100.5.11.5.2</t>
+    <t>urn:ietf:rfc:3986#Uniform Resource Identifier (URI)#urn:oid:1.2.392.100495.10.3.100.5.11.5.2</t>
   </si>
   <si>
     <t>Version</t>

--- a/jpcore-r4/main/CodeSystem-jp-microbiology-anti-microbial-drug-cs.xlsx
+++ b/jpcore-r4/main/CodeSystem-jp-microbiology-anti-microbial-drug-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>urn:ietf:rfc:3986#Uniform Resource Identifier (URI)#urn:oid:1.2.392.100495.10.3.100.5.11.5.2</t>
+    <t>OID:1.2.392.100495.10.3.100.5.11.5.2</t>
   </si>
   <si>
     <t>Version</t>
@@ -78,7 +78,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
